--- a/assets/Penetration Testing Findings Repository 1.0.xlsx
+++ b/assets/Penetration Testing Findings Repository 1.0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/share-1/dev/external/assessment-reporting-engine/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/share/dev/EXTERNAL/assessment-reporting-engine/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1528B7AA-0D84-AC42-8720-434D60918167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E82274B-ACDC-3648-8304-3470FB66D51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="500" windowWidth="34820" windowHeight="28300" xr2:uid="{9C899BDA-8373-FC47-B9D6-CA7758CA3389}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="43900" windowHeight="28300" xr2:uid="{9C899BDA-8373-FC47-B9D6-CA7758CA3389}"/>
   </bookViews>
   <sheets>
     <sheet name="License" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="1098">
   <si>
     <t>Finding_Category_ID</t>
   </si>
@@ -1705,9 +1705,6 @@
     <t>Unsafe Stored Procedures Enabled</t>
   </si>
   <si>
-    <t>When stored procedures are improperly implemented, they are susceptible to Structured Query Language (SQL) injection attacks. A stored procedure can be vulnerable when dynamic SQL inside the procedure is not handled properly. This vulnerability can occur because of a lack of user input sanitation or incorrect use of dynamic cursors. When a stored procedure is exploited, an attacker can access and manipulate information in the affected database or execute system-level commands.</t>
-  </si>
-  <si>
     <t>Always validate user input. Avoid using dynamic SQL queries inside stored procedures. Ensure that a low-privileged account runs the database. Use procedures with embedded parameters.</t>
   </si>
   <si>
@@ -1911,30 +1908,6 @@
     <t>3, 4, 6, 7, 9, 10, 12, 13, 16</t>
   </si>
   <si>
-    <t>DD-WRT Router Information Disclosure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vulnerability in the DresDren-Wireless RouTer (DD-WRT) firmware on a router allows information about the router to be disclosed that can lead to further compromise of a wireless network. An attacker can find the media access control (MAC) addresses of router interfaces, connected clients, and sometimes the Global Positioning System (GPS) coordinates, if the router is registered with Google location services. </t>
-  </si>
-  <si>
-    <t>https://www.tenable.com/plugins/nessus/51394, https://www.exploit-db.com/exploits/15842</t>
-  </si>
-  <si>
-    <t>http://www.devttys0.com/wp-content/uploads/2010/12/dd-wrt_info_disclosure.pdf</t>
-  </si>
-  <si>
-    <t>MP-2, MP-3, MP-4, MP-5, MP-6, MP-7, MP-8, RA-1, RA-3, RA-5, SI-2, SC-28</t>
-  </si>
-  <si>
-    <t>PR.DS-1, PR.IP-12</t>
-  </si>
-  <si>
-    <t>Unpatched Eternal Blue Vulnerability</t>
-  </si>
-  <si>
-    <t>Eternal Blue (i.e., MS17-010) is a remote code-execution vulnerability that affects Windows hosts. The vulnerability is caused by the improper handling of certain requests in Microsoft Server Message Block 1.0 (SMBv1). When exploited with a specially crafted packet, an unauthenticated attacker can execute arbitrary code.</t>
-  </si>
-  <si>
     <t>https://www.tenable.com/cve/CVE-2017-0144</t>
   </si>
   <si>
@@ -1990,12 +1963,6 @@
   </si>
   <si>
     <t>2, 4, 7, 9, 16</t>
-  </si>
-  <si>
-    <t>Unpatched MS08-067 Vulnerability</t>
-  </si>
-  <si>
-    <t>MS08-067 is a remote code execution vulnerability that affects Windows hosts. The vulnerability is caused by the improper handling of remote procedure call (RPC) requests in the Server service. When exploited with a specially crafted RPC request, an unauthenticated attacker can execute arbitrary code with System privileges.</t>
   </si>
   <si>
     <t>https://www.tenable.com/plugins/nessus/34476</t>
@@ -2071,9 +2038,6 @@
     <t>Unpatched Shellshock Vulnerability</t>
   </si>
   <si>
-    <t xml:space="preserve">Shellshock is a remote code-execution vulnerability that affects hosts that run outdated versions of Bash that are also susceptible to command injection by manipulating environmental variables. </t>
-  </si>
-  <si>
     <t>https://www.tenable.com/plugins/nessus/77823</t>
   </si>
   <si>
@@ -2084,9 +2048,6 @@
   </si>
   <si>
     <t>Unpatched Zerologon Vulnerability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Zerologon vulnerability (i.e., Zerologon or Microsoft Windows Netlogon Remote Protocol [MS-NRPC]) uses an initialization vector (IV) of zero when the IV should be a random number. When exploited, an unauthenticated attacker can impersonate a domain-joined computer or domain controller and obtain domain administrator privileges. </t>
   </si>
   <si>
     <t>https://msrc.microsoft.com/update-guide/en-US/vulnerability/CVE-2020-1472 https://www.trendmicro.com/en_us/what-is/zerologon.html https://www.kb.cert.org/vuls/id/490028 https://www.kb.cert.org/vuls/id/490028</t>
@@ -3187,9 +3148,6 @@
     <t>Update Windows on the affected hosts. A set of patches is available for this vulnerability, that should be applied to the vulnerable systems. Consider disabling Remote Desktop Protocol (RDP) if it is not needed.</t>
   </si>
   <si>
-    <t>Maintain up-to-date firmware on routers and configure information pages to be password protected using a strong, unique password.</t>
-  </si>
-  <si>
     <t>Upgrade OpenSSL version on the affected hosts. If upgrading is not possible, consider disabling the vulnerable component when compiling OpenSSL.</t>
   </si>
   <si>
@@ -3217,9 +3175,6 @@
     <t xml:space="preserve">Windows New Technology LAN Manager (NTLM) authentication, introduced in Windows NT 3.1, validates whether a user is who they claim to be. A successor of LanMan (LM), NTLM authentication continues to use insecure methods through a hashing process of credentials. NTLM authentication also lacks effective support for smart cards and other multifactor authentication (MFA) solutions. If an attacker can obtain a username and a hash, they can conduct attacks such as Pass-the-Hash. On the client side, password hashes are stored in SYSTEM and Security Account Manager (SAM) files, readable by anyone with administrator access. On the server side, password hashes are stored in the NTDS.dit file on the domain controller and are susceptible to DCSync attacks.  </t>
   </si>
   <si>
-    <t>Improper input handling occurs when functions like validation, sanitization, filtering, encoding, and/or decoding of input data are not implemented correctly. This weakness is common in web applications and can make these applications vulnerable to attacks (e.g., buffer overflows, Structured Query Language [SQL] injections, cross-site-scripting (XSS), and denial of service [DoS]).</t>
-  </si>
-  <si>
     <t>Ensure the web application is performing server-side validation checks and client-side validation. Implement input sanitation and filtering mechanisms to allow acceptable input types and block unacceptable ones. Configure HTTP response headers such as Content-Type and X-Content-Type-Options to help prevent malicious or unintended contents such as JavaScript from polluting responses (e.g., cross-site scripting).</t>
   </si>
   <si>
@@ -3278,6 +3233,417 @@
   </si>
   <si>
     <t>2, 4, 9, 13, 16</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>general finding, wireless technology weakness, wifi, wi fi, access control</t>
+  </si>
+  <si>
+    <t>general finding, web application weakness, insecure design, weak design, web app, web apps, app, website, web site, site, architecture, error, error message, verbose, verbosity, verbose error, creds, credential, credentials, weak storage, insecure storage, enum, enumeration, user enumeration, username enumeration</t>
+  </si>
+  <si>
+    <t>general finding, web application weakness, crypto, cryptography, cryptographic failure, sensitive data exposure, algorithm, crypto algorithm, cryptographic algorithm, clear text, cleartext, insecure algorithm, weak algorithm, weak crypto, weak cryptography, key, keys, encrypt, key management, MD5, MD-5, SHA1, SHA-1, RC4, RC-4, PKCS, hash, hashes, hash functions, padding oracle, padding oracle attack, tokenization, cipher, ciphers, HSTS, strict transport security, salt, salted, web app, web apps, app, website, web site, site</t>
+  </si>
+  <si>
+    <t>general finding, web application weakness, web app, web apps, app, website, web site, site, privilege, privileges, least privilege, permission, permissions, broken access control, weak access control, access control weakness, insecure access control, token, tokens, cookie, cookies, JSON Web Token, JWT, authenticate, authentication, allow, deny, session, sessions</t>
+  </si>
+  <si>
+    <t>general finding, web application weakness, broken authentication, authenticate, identity, identification, web app, web apps, app, website, web site, site, session management, credential, credentials, credential stuffing, password, passwords, account, accounts, brute force, weak authentication, insecure authentication, multifactor, multi-factor, multi factor, session, sessions, login, logins, log in, token, tokens, single sign-on, single sign on, SSO, log out, logout</t>
+  </si>
+  <si>
+    <t>general finding, web application weakness, code execution, remote code execution, web app, web apps, app, website, web site, site, disclosure, denial of service, DoS, SSRF, Server Side Request Forgery, XEE, XML External Entity, misconfiguration, web app vulnerability, web application vulnerability, weak configuration, insecure configuration</t>
+  </si>
+  <si>
+    <t>general finding, web application weakness, SQL, SQLi, XSS, Structured Query Language, cross-site scripting, cross site scripting, inject, injects, injected, injecting, code, RCE, CRLF, SSI, XPath, blind, command, command inject, command injection, command injecting , web app, web apps, app, website, site</t>
+  </si>
+  <si>
+    <t>general finding, system or service weakness, operating system, operating systems, outdated, old, support, supported, Microsoft, Windows, patch, patches, patched, patch management, machine, host, workstation, computer, server, endpoint</t>
+  </si>
+  <si>
+    <t>general finding, system or service weakness, patch management, patch, patches, patched, machine, host, workstation, computer, server, endpoint</t>
+  </si>
+  <si>
+    <t>general finding, system or service weakness, excess, excessive, attack surface, port, ports, protocol, protocols, service, services</t>
+  </si>
+  <si>
+    <t>general finding, system or service weakness, ACL, machine, host, workstation, computer, server, endpoint, share, shares, folder, folders, directory, directories, resource, resources, file, files, privilege, privileges, permission, permissions</t>
+  </si>
+  <si>
+    <t>general finding, system or service weakness, weak configuration, weak system, weak service, machine, host, workstation, computer, server, endpoint</t>
+  </si>
+  <si>
+    <t>general finding, system or service weakness, weak protocol, weak protocols, cleartext protocol, cleartext protocols</t>
+  </si>
+  <si>
+    <t>general finding, phishing weakness, payload, payload testing, phishing, spear-phishing, spear phishing, spearphishing, weakness</t>
+  </si>
+  <si>
+    <t>general finding, phishing weakness, phishing, spear-phishing, spear phishing, spearphishing, susceptibility</t>
+  </si>
+  <si>
+    <t>general finding, phishing weakness</t>
+  </si>
+  <si>
+    <t>general finding, mobile technology weakness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">general finding, active directory weakness, Active Directory, domain, domains, group policy, group policy object, GPO, groups, AD, object, objects, organizational unit, OU, AD CS, AD DS, AD FS, AD LDS, AD RMS, Kerberos, Ticket Granting Ticket, TGT, Key Distribution Center, KDC, Service Principal Names, SPN, NTLM, access control, Discretionary Access Control List, DACL, Access Control Entries, ACE, System Access Control List SACL, trust, trusts, </t>
+  </si>
+  <si>
+    <t>general finding, active directory weakness, user account, computer account, machine account, domain account, Active Directory, unnecessary privileges, excessive privileges, least privilege</t>
+  </si>
+  <si>
+    <t>general finding, active directory weakness, credential, credentials, password, passwords, authentication, weak password, weak authentication</t>
+  </si>
+  <si>
+    <t>general finding, wireless technology weakness, policy, wireless policy, wireless encryption, wifi, wi fi</t>
+  </si>
+  <si>
+    <t>general finding, wireless technology weakness, crypto, cryptography, encrypt, encryption, algorithm, algorithms, algorithmic, wifi, wi fi, auth, authentication, weak cryptography, weak authentication</t>
+  </si>
+  <si>
+    <t>general finding, wireless technology weakness, network, networks, architecture, network architecture, wifi, wi fi</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, credential management weakness, credential, credentials, password, passwords, authentication, enforce, enforcement, not enforced</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, credential management weakness, credential, credentials, password, passwords, easily guessable, easily crackable, guessing, cracking, guesses, cracks</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, credential management weakness, credential, credentials, password, passwords, authentication, reusing passwords, reuse password, elevated password reuse, admin, admins, elevated, privilege, privileged, low level, unprivileged, standard user</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, credential management weakness, credential, credentials, password, passwords, authentication, reusing passwords, reuse password, admin password reuse, admin, admins, privilege, privileged</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, credential management weakness, credential, credentials, password, passwords, GPO, cleartext, clear text, plaintext, plain text, insecure group policy preferences</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, credential management weakness, credential, credentials, password, passwords, policies, requirement, length, complex, complexity, expire, expiration, history, age, minimum, maximum, reverse, reversible, enforce, enforcing, enforcement, weak password policy</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, credential management weakness, credential, credentials, password, passwords, Lan Man, NTLM hash, NTLM hashes, PTH, pass the hash, weak authentication mechanism</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure account configuration, account privileges, nest, nested, nesting, inherit, inherited, member of, privilege, privileges, groups, excess, excessive, unnecessary, overly permissive, authorize, authorized, unauthorized</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure account configuration, elevated service account permissions, excess, excessive, unnecessary, overly permissive, authorize, authorized, unauthorized</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure account configuration, account privileges, excess, excessive, unnecessary, overly permissive, authorize, authorized, unauthorized</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure account configuration, unnecessary, admin, admins, administrator, administrators, standard, normal, low-level, low level, unprivileged, non-privileged, non-essential use of elevated access, everyday, every day</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure account configuration, old, outdated, inactive</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure active directory configuration, delegate, delegation, delegated, delegating, Allowed to Act On Behalf of Other Identity, permission, permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specific finding, active directory weakness, insecure active directory configuration, KRB, TGT </t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure active directory configuration, AD, CS, ADCS, enroll, enrolls, enrolling, enrollment, web enrollment, coerce, coercion, pass the hash, certipy, certified, certify</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure active directory configuration, certipy, certified, certify, enrollee, supplies, subject, enroll, enrolling, enrolls, enrollment, permission, permissions, EnrolleeSuppliesSubject, property, properties, principal, principals, write owner, write dacl, write property, object control, right, rights, CA, certificate authority, certificate authorities, agent, flag, flags, SAN, subject alternative name, subject alt name, full control, client authentication</t>
+  </si>
+  <si>
+    <t>specific finding, active directory weakness, insecure active directory configuration, kerberoast, kerberoasted, kerberoasts, kerberoasting, hash, hashes, crack, cracking, crackable</t>
+  </si>
+  <si>
+    <t>specific finding, mobile technology weakness, insecure mobile access control</t>
+  </si>
+  <si>
+    <t>specific finding, mobile technology weakness, mobile cryptographic weakness</t>
+  </si>
+  <si>
+    <t>specific finding, mobile technology weakness, mobile design weakness</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, email spoofing susceptibility, domain keys identified mail, authenticate, authenticated, authentication, authenticates, validates, validation, spoofs, spoofed, spoofing, spoofer, spoofers, domain name system, DNS, records</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, email spoofing susceptibility, domain based message authentication reporting and conformance, authenticate, authenticated, authentication, authenticates, spoofs, spoofed, spoofing, spoofer, spoofers, domain name system, DNS, records</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, email spoofing susceptibility, verify, verifies, verified, verifying, validate, validates, validation, validating, spoofs, spoofed, spoofing, spoofer, spoofers, domain name system, DNS, records</t>
+  </si>
+  <si>
+    <t>general finding, phishing weakness, email, mail, spoof, spoofs, spoofing, spoofer, spoofers, authentication, domain name system, DNS, record, records</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, email spoofing susceptibility, verify, verifies, verified, verifying, validate, validates, validation, validating, spoofs, spoofed, spoofing, spoofer, spoofers, encrypt, encrypting, encrypts, encryption, encrypted, SMIME, S-MIME, records</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, social engineering susceptibility, spear phish, spear phishing, spear-phish, spear-phishing, spearphish, spearphishing, spear phishing susceptibility, campaign, phish, phished, phishes, phishing, phisher, gophish</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, social engineering susceptibility, spear phish, spear phishing, spear-phish, spear-phishing, spearphish, spearphishing, spear phishing susceptibility, campaign, phish, phished, phishes, phishing, phisher, gophish, cred harvest, creds, credentials, login, log in, account, accounts, user, users, capture, captured, captures, capturing</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, social engineering susceptibility, spear phish, spear phishing, spear-phish, spear-phishing, spearphish, spearphishing, spear phishing weakness, spear phishing weaknesses, campaign, phish, phished, phishes, phishing, phisher, gophish, spam, spamming, spammers</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, unblocked malicious code, spear phish, spear phishing, spear-phish, spear-phishing, spearphish, spearphishing, spear phishing weakness, spear phishing weaknesses, payload, payloads, payload test, payload tests, payload testing</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, unblocked malicious code, spear phish, spear phishing, spear-phish, spear-phishing, spearphish, spearphishing, spear phishing weakness, spear phishing weaknesses, payload, payloads, payload test, payload tests, payload testing, macro, macros</t>
+  </si>
+  <si>
+    <t>specific finding, phishing weakness, unblocked malicious code, spear phish, spear phishing, spear-phish, spear-phishing, spearphish, spearphishing, spear phishing weakness, spear phishing weaknesses, payload, payloads, payload test, payload tests, payload testing, mark of the web</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure protocol implementation, weak protocol, weak protocols, insecure protocol version, versions, share, shares, file share</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure protocol implementation, weak protocol, weak protocols, insecure protocol version, versions</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure protocol implementation, weak protocol, weak protocols, relay, relays, relaying, responder, ntlmrelayx</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure protocol implementation, weak protocol, weak protocols, cleartext protocol, cleartext protocols, clear text</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure system or service configuration, databases, insecure default, database configuration</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure system or service configuration, privilege, privileges, databases, unnecessary privileges, database configuration</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure system or service configuration, insecure default configuration, default credential, default credentials, default password, default passwords, configure, configures, configuring, configured</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure system or service configuration, databases, database configuration, configure, configures, configuring, configured</t>
+  </si>
+  <si>
+    <t>When stored procedures are improperly implemented, they are susceptible to Structured Query Language (SQL) injection attacks. A stored procedure can be vulnerable when dynamic SQL inside the procedure is not handled properly. This vulnerability can occur because of a lack of user input sanitization or incorrect use of dynamic cursors. When a stored procedure is exploited, an attacker can access and manipulate information in the affected database or execute system-level commands.</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure system or service configuration, store, stores, stored, storing, sanitize, sanitizing, sanitized, sanitizes, validates, validated, validation, query, queries, queried, querying, privileges</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure system or service configuration, credential, credentials, easily guessable, easily crackable</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, insecure system or service configuration, credential, credentials, policies, multi-factor, multi factor, weak password policy</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, system access control weakness, store, stores, stored, storing, cleartext, clear text, cleartext password disclosure, unencrypted, expose, exposes, exposing, exposed, insecure password storage, password, passwords, credential, credentials</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, system access control weakness, store, stores, stored, storing, unencrypted, expose, exposes, exposing, exposed, PII disclosure, disclose, discloses, disclosing, disclosed</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, system access control weakness, file, files, directory, directories, insecure file shares, access control list, ACL, privilege, privileges, authorize, authorized, authorizing, authorizes</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, system access control weakness, insecure file shares, null session, null sessions, anonymous FTP, authenticate, authentication, authenticates, authenticated</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, system access control weakness, network segmentation not implemented, network segregation not implemented, segregate, segregates, segregated, segregation, segment, segments, segmented, segmenting, segmentate, segmentation, unsegregated, unsegmented, non-segregated, non-segmented, access control list, ACL</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unnecessary network services, responder, poison, poisoning, poisoner, machine-in-the-middle, machine in the middle, MITM, relay, relays, relayed, relaying, capture, captures, captured, capturing, deprecated, deprecate, deprecates, name resolution, NR</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unnecessary network services, web client, webdav, web dav, force, forced, coerce, coercion, authenticate, authenticated, authenticates, authenticating</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2019-0708, cve 2019 0708, Microsoft, patch, patches, patched, patching, patch management</t>
+  </si>
+  <si>
+    <t>Unpatched EternalBlue Vulnerability</t>
+  </si>
+  <si>
+    <t>EternalBlue (MS17-010) is a remote code-execution vulnerability that affects Windows hosts. The vulnerability is caused by the improper handling of certain requests in Microsoft Server Message Block 1.0 (SMBv1). When exploited with a specially crafted packet, an unauthenticated attacker can execute arbitrary code.</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2017-0144, cve 2017 0144, Microsoft, patch, patches, patched, patching, patch management, ms17010, ms17 010, ms 17 010, ms-17-010</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2014-0160, cve 2014 0160, patch, patches, patched, patching, patch management</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2021-44228, cve 2021 44228, patch, patches, patched, patching, patch management</t>
+  </si>
+  <si>
+    <t>Unpatched EclipsedWing Vulnerability</t>
+  </si>
+  <si>
+    <t>EclipsedWing (MS08-067) is a remote code execution vulnerability that affects Windows hosts. The vulnerability is caused by the improper handling of remote procedure call (RPC) requests in the Server service. When exploited with a specially crafted RPC request, an unauthenticated attacker can execute arbitrary code with System privileges.</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2008-4250, cve 2008 4250, Microsoft, patch, patches, patched, patching, patch management, ms08067, ms08 067, ms 08 067, ms-08-067, shadow brokers</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unnecessary network services, force, forced, coerce, coercion, authenticate, authenticated, authenticates, authenticating, rpc add printer driver ex</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2021-34527, cve 2021 34527, Microsoft, RCE, patch, patches, patched, patching, patch management, print nightmare, print spooler, printspooler</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2021-26855, cve 2021 26855, CVE-2021-26412, cve 2021 26412, CVE-2021-26854, cve 2021 26854, CVE-2021-26857, cve 2021 26857, CVE-2021-26858, cve 2021 26858, CVE-2021-27065, cve 2021 27065, CVE-2021-27078, cve 2021 27078, Microsoft, RCE, patch, patches, patched, patching, patch management</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2021-34473, cve 2021 34473, CVE-2021-34523, cve 2021 34523, CVE-2021-31207, cve 2021 31207, Microsoft, RCE, patch, patches, patched, patching, patch management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shellshock is a remote code execution vulnerability that affects hosts that run outdated versions of Bash that are also susceptible to command injection by manipulating environmental variables. </t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2014-6271, cve 2014 6271, CVE-2014-7169, cve 2014 7169, CVE-2014-7186, cve 2014 7186, CVE-2014-7187, cve 2014 7187, CVE-2014-6277, cve 2014 6277, CVE-2014-6278, cve 2014 6278, RCE, patch, patches, patched, patching, patch management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Zerologon vulnerability (Zerologon or Microsoft Windows Netlogon Remote Protocol [MS-NRPC]) uses an initialization vector (IV) of zero when the IV should be a random number. When exploited, an unauthenticated attacker can impersonate a domain-joined computer or domain controller and obtain domain administrator privileges. </t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unpatched system or service, CVE-2020-1472, cve 2020 1472, privilege escalation, escalate, escalates, escalating, elevate, elevates, elevation, elevating, patch, patches, patched, patching, patch management</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unsupported os or application, Microsoft, Windows, server, workstation, system, host, endpoint, client</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unsupported os or application, linux, mac, macos, osx, server, workstation, system, host, endpoint, client</t>
+  </si>
+  <si>
+    <t>specific finding, system or service weakness, unsupported os or application, software, application, applications, program, programs, apache tomcat, oracle, mozilla firefox, google chrome, browser, browsers, adobe, acrobat, microsoft office, microsoft edge</t>
+  </si>
+  <si>
+    <t>Improper input handling occurs when functions like validation, sanitization, filtering, encoding, and/or decoding of input data are not implemented correctly. This weakness is common in web applications and can make these applications vulnerable to attacks (e.g., buffer overflows, Structured Query Language [SQL] injections, cross-site scripting [XSS], and denial of service [DoS]).</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, injection weakness, inject, injects, injecting, injection, cross-site scripting, cross site scripting, sql injection, sanitize, sanitizes, sanitized, sanitizing, sanitization</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, injection weakness, sanitize, sanitizes, sanitized, sanitizing, sanitization, outputs, outputting</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, insecure web application configuration, configure, configures, configured, configuration, configuring</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, insecure web application configuration, admin panel, administrative panel, admin login, administrative login, admin log in, administrative log in, administrator, administration, administrator panel, administrator login, administrator log in</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, insecure web application configuration, configure, configures, configured, configuration, configuring, insecure default configuration, default credential, default credentials, default password, default login, default log in, credential, credentials, password, passwords, login, log in</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, insecure web application configuration, configure, configures, configured, configuration, configuring, server, endpoint, system</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, insecure web application configuration, XML external entity injection, inject, injects, injecting, injected</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application authentication weakness, verify, verifies, verified, verification, brute-force, brute force, brute-forced, brute forced, brute-forcing, brute forcing, brute-forces, brute forces, automate, automates, automatic, automatically, automated, automating</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application authentication weakness, authenticate, authenticates, authenticated, authenticating, authentication bypass, weak authentication mechanism, brute-force, brute force, brute-forced, brute forced, brute-forcing, brute forcing, brute-forces, brute forces</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application authentication weakness, recover, recovers, recovered, recovering, password, passwords, password reset, credential, credentials</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application authentication weakness, session management, session token, session tokens, bypass, bypassing, bypassed, bypasses</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application authentication weakness, easily guessable credentials, password, passwords, credential, credentials, weak password, brute-force, brute force, brute-forced, brute forced, brute-forcing, brute forcing, brute-forces, brute forces</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application authentication weakness, password, passwords, credential, credentials, weak password policy, multi-factor authentication, multi factor authentication, multifactor authentication, MFA</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application access control weakness, file, files, directory, directories, traverse, traversal, traversed, traversing, traverses, permission, permissions, authorize, authorized, authorization, authorizes, authorizing, directory traversal, path traversal, enumerate, enumeration, enumerating, enumerates, enumerated, path, paths</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application access control weakness, data disclosure, information disclosure, unintentional disclosure, disclose, discloses, disclosed, disclosures, disclosing</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application access control weakness, metadata leakage, leak, leaks, leaking, leaked, user enumeration, username enumeration, verbose error message, verbose error messages, verbose, verbosity, data leakage</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application access control weakness, authorize, authorizes, authorizing, authorized, authorization</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application cryptographic weakness, unencrypted transmission of sensitive info, unencrypted transmission of sensitive information, cleartext, clear text, SSL, TLS</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application cryptographic weakness, unsupported ssl/tls encryption cipher, SSL, TLS, ciphers, encrypted, encrypt, encrypts</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application cryptographic weakness, unsupported ssl/tls version, SSL, TLS, encrypted, encrypt, encrypts</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application cryptographic weakness, self-signed certificate, self-signed certificates, self signed certificate, self signed certificates, issue, issues, issued, certificate authority, CA, trust, trusts, trusted, trusting</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness, application logic issue</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness, local file inclusion, LFI, remote file inclusion, RFI, include, includes, including, included</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness, XML external entity injection, inject, injects, injected, injection, injecting</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness, host header poisoning, poisons, poisoned, poison</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness, cross site request forgery, CSRF, forge, forges, forged, forgery, forging, authenticate, authenticates, authenticated, authenticating, authentication</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness, process, processes, processed, processing</t>
+  </si>
+  <si>
+    <t>specific finding, web application weakness, web application design weakness, URL redirect, redirects, redirected, redirecting, redirection, trust, trusts, trusted, trusting, site, sites, website, websites, domain, domains</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, insecure wireless authentication, open network, open wireless, unprotected, protect, protected, password, passwords, authenticate, authenticated, authenticates, authenticating, authentication, sniffing, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, insecure wireless authentication, wireless, 80211, 802-11, 80211r, 802-11r, replay, replays, replaying, decrypt, decrypts, decrypting, decryption, spoof, spoofs, spoofing, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, insecure wireless authentication, portal, portals, authenticate, authentication, authenticated, authenticates, authenticating, login, log in, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, insecure wireless authentication, certificates, credential, credentials, password, passwords, PEAP, EAP, TLS, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, insecure wireless authentication, certificates, credential, credentials, password, passwords, EAP, GTC, MSCHAP, MS-CHAP, MS CHAP, PEAP, MSCHAPv2, MS-CHAPv2, MS CHAPv2, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, insecure wireless authentication, allow, allowlist, allowlists, allow list, allow lists, exception, exceptions, spoofing, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, system management weakness, broadcast, broadcasts, broadcasting, broadcasted, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, wireless cryptographic weakness, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, wireless cryptographic weakness, encrypt, encrypted, encrypting, encryption, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, wireless cryptographic weakness, PEAP, MSCHAP, MS CHAP, MS-CHAP, MSCHAPv2, MS CHAPv2, MS-CHAPv2, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, wireless network design weakness, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, wireless network design weakness, network segmentation not implemented, segment, segments, segmented, segmenting, segmentation, wifi, wi-fi, wireless fidelity</t>
+  </si>
+  <si>
+    <t>specific finding, wireless technology weakness, wireless network design weakness, broadcast, broadcasts, broadcasting, broadcasted, sniffing, wifi, wi-fi, wireless fidelity</t>
   </si>
 </sst>
 </file>
@@ -4510,7 +4876,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228C06AC-317E-5044-B7A5-92100984FDF0}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4531,9 +4897,10 @@
     <col min="10" max="10" width="21.1640625" style="10" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="10" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -4571,10 +4938,13 @@
         <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+        <v>939</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>5</v>
       </c>
@@ -4600,7 +4970,7 @@
         <v>41</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>42</v>
@@ -4611,8 +4981,11 @@
       <c r="M2" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="N2" s="10" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>5</v>
       </c>
@@ -4638,7 +5011,7 @@
         <v>48</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>49</v>
@@ -4649,8 +5022,11 @@
       <c r="M3" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N3" s="10" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
@@ -4676,7 +5052,7 @@
         <v>48</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>49</v>
@@ -4687,8 +5063,11 @@
       <c r="M4" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+      <c r="N4" s="10" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
@@ -4715,7 +5094,7 @@
         <v>59</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>60</v>
@@ -4726,8 +5105,11 @@
       <c r="M5" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="388" x14ac:dyDescent="0.2">
+      <c r="N5" s="10" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="388" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
@@ -4756,7 +5138,7 @@
         <v>66</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>67</v>
@@ -4767,8 +5149,11 @@
       <c r="M6" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N6" s="10" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
@@ -4806,8 +5191,11 @@
       <c r="M7" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N7" s="10" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -4834,7 +5222,7 @@
         <v>78</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>79</v>
@@ -4845,8 +5233,11 @@
       <c r="M8" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+      <c r="N8" s="10" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="340" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -4884,8 +5275,11 @@
       <c r="M9" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N9" s="10" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -4925,8 +5319,11 @@
       <c r="M10" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+      <c r="N10" s="10" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
@@ -4964,8 +5361,11 @@
       <c r="M11" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N11" s="10" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -5005,8 +5405,11 @@
       <c r="M12" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N12" s="10" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
         <v>16</v>
       </c>
@@ -5033,7 +5436,7 @@
         <v>112</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>113</v>
@@ -5044,8 +5447,11 @@
       <c r="M13" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N13" s="10" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
@@ -5072,7 +5478,7 @@
         <v>118</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>119</v>
@@ -5083,8 +5489,11 @@
       <c r="M14" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N14" s="10" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
         <v>16</v>
       </c>
@@ -5122,8 +5531,11 @@
       <c r="M15" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N15" s="10" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
@@ -5163,8 +5575,11 @@
       <c r="M16" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N16" s="10" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
         <v>16</v>
       </c>
@@ -5200,8 +5615,11 @@
       <c r="M17" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N17" s="10" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>16</v>
       </c>
@@ -5241,8 +5659,11 @@
       <c r="M18" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N18" s="10" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -5279,8 +5700,11 @@
       <c r="M19" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N19" s="10" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -5320,8 +5744,11 @@
       <c r="M20" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N20" s="10" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -5358,8 +5785,11 @@
       <c r="M21" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N21" s="10" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -5396,8 +5826,11 @@
       <c r="M22" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="N22" s="10" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -5437,8 +5870,11 @@
       <c r="M23" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N23" s="10" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>20</v>
       </c>
@@ -5475,8 +5911,11 @@
       <c r="M24" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N24" s="10" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
@@ -5514,8 +5953,11 @@
       <c r="M25" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N25" s="10" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -5532,7 +5974,7 @@
         <v>198</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>952</v>
+        <v>938</v>
       </c>
       <c r="G26" s="15" t="s">
         <v>199</v>
@@ -5555,8 +5997,11 @@
       <c r="M26" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N26" s="10" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -5594,8 +6039,11 @@
       <c r="M27" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N27" s="10" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
@@ -5633,8 +6081,11 @@
       <c r="M28" s="31">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N28" s="10" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
         <v>28</v>
       </c>
@@ -5664,7 +6115,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE6EBA3-B14F-E947-A615-39B9D02994B2}">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5684,11 +6135,13 @@
     <col min="10" max="10" width="21" style="10" customWidth="1"/>
     <col min="11" max="11" width="10.6640625" style="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.1640625" style="15" customWidth="1"/>
-    <col min="13" max="16383" width="11" style="15"/>
+    <col min="13" max="13" width="11" style="15"/>
+    <col min="14" max="14" width="44" style="15" customWidth="1"/>
+    <col min="15" max="16383" width="11" style="15"/>
     <col min="16384" max="16384" width="8" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>30</v>
       </c>
@@ -5726,10 +6179,13 @@
         <v>36</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
+        <v>939</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
@@ -5769,8 +6225,11 @@
       <c r="M2" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+      <c r="N2" s="10" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="340" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>37</v>
       </c>
@@ -5787,7 +6246,7 @@
         <v>229</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>230</v>
@@ -5810,8 +6269,11 @@
       <c r="M3" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N3" s="10" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
         <v>37</v>
       </c>
@@ -5825,10 +6287,10 @@
         <v>235</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>958</v>
+        <v>943</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>969</v>
+        <v>954</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>236</v>
@@ -5851,8 +6313,11 @@
       <c r="M4" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="N4" s="10" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>37</v>
       </c>
@@ -5892,8 +6357,11 @@
       <c r="M5" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>37</v>
       </c>
@@ -5907,7 +6375,7 @@
         <v>245</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>954</v>
+        <v>940</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>246</v>
@@ -5930,8 +6398,11 @@
       <c r="M6" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N6" s="10" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
@@ -5945,7 +6416,7 @@
         <v>250</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>957</v>
+        <v>942</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>251</v>
@@ -5968,8 +6439,11 @@
       <c r="M7" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="N7" s="10" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>37</v>
       </c>
@@ -6009,8 +6483,11 @@
       <c r="M8" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="N8" s="15" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>44</v>
       </c>
@@ -6050,8 +6527,11 @@
       <c r="M9" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N9" s="15" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>44</v>
       </c>
@@ -6068,7 +6548,7 @@
         <v>271</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>960</v>
+        <v>945</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>272</v>
@@ -6091,8 +6571,11 @@
       <c r="M10" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N10" s="15" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>44</v>
       </c>
@@ -6109,7 +6592,7 @@
         <v>277</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>961</v>
+        <v>946</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>278</v>
@@ -6132,8 +6615,11 @@
       <c r="M11" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N11" s="15" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
         <v>44</v>
       </c>
@@ -6144,24 +6630,24 @@
         <v>114</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>962</v>
+        <v>947</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>963</v>
+        <v>948</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>964</v>
+        <v>949</v>
       </c>
       <c r="G12" s="43"/>
       <c r="H12" s="14"/>
       <c r="I12" s="15" t="s">
-        <v>965</v>
+        <v>950</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>966</v>
+        <v>951</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>967</v>
+        <v>952</v>
       </c>
       <c r="L12" s="15" t="s">
         <v>54</v>
@@ -6169,8 +6655,11 @@
       <c r="M12" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N12" s="15" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>44</v>
       </c>
@@ -6199,7 +6688,7 @@
         <v>286</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>287</v>
@@ -6210,8 +6699,11 @@
       <c r="M13" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+      <c r="N13" s="15" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="340" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>50</v>
       </c>
@@ -6228,7 +6720,7 @@
         <v>290</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>291</v>
@@ -6251,8 +6743,11 @@
       <c r="M14" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="404" x14ac:dyDescent="0.2">
+      <c r="N14" s="15" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="404" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>50</v>
       </c>
@@ -6292,8 +6787,11 @@
       <c r="M15" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N15" s="15" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>50</v>
       </c>
@@ -6322,7 +6820,7 @@
         <v>308</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>49</v>
@@ -6333,8 +6831,11 @@
       <c r="M16" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N16" s="15" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>50</v>
       </c>
@@ -6374,8 +6875,11 @@
       <c r="M17" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="404" x14ac:dyDescent="0.2">
+      <c r="N17" s="15" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="404" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>50</v>
       </c>
@@ -6401,7 +6905,7 @@
         <v>320</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>321</v>
@@ -6412,8 +6916,11 @@
       <c r="M18" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N18" s="15" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>55</v>
       </c>
@@ -6453,8 +6960,11 @@
       <c r="M19" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N19" s="15" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
         <v>68</v>
       </c>
@@ -6492,8 +7002,11 @@
       <c r="M20" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="388" x14ac:dyDescent="0.2">
+      <c r="N20" s="15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="388" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>68</v>
       </c>
@@ -6533,8 +7046,11 @@
       <c r="M21" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N21" s="15" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>74</v>
       </c>
@@ -6574,8 +7090,11 @@
       <c r="M22" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="N22" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
         <v>74</v>
       </c>
@@ -6615,8 +7134,11 @@
       <c r="M23" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N23" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
         <v>74</v>
       </c>
@@ -6656,8 +7178,11 @@
       <c r="M24" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N24" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>74</v>
       </c>
@@ -6697,8 +7222,11 @@
       <c r="M25" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N25" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
         <v>74</v>
       </c>
@@ -6738,8 +7266,11 @@
       <c r="M26" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N26" s="15" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>80</v>
       </c>
@@ -6779,8 +7310,11 @@
       <c r="M27" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N27" s="15" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>80</v>
       </c>
@@ -6820,8 +7354,11 @@
       <c r="M28" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N28" s="15" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>80</v>
       </c>
@@ -6861,8 +7398,11 @@
       <c r="M29" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N29" s="15" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>80</v>
       </c>
@@ -6898,8 +7438,11 @@
       <c r="M30" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+      <c r="N30" s="15" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
         <v>94</v>
       </c>
@@ -6937,8 +7480,11 @@
       <c r="M31" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N31" s="15" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
         <v>94</v>
       </c>
@@ -6978,8 +7524,11 @@
       <c r="M32" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N32" s="15" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
         <v>94</v>
       </c>
@@ -6990,24 +7539,24 @@
         <v>115</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>970</v>
+        <v>955</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>971</v>
+        <v>956</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>973</v>
+        <v>958</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="13"/>
       <c r="I33" s="4" t="s">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>974</v>
+        <v>959</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="L33" s="15" t="s">
         <v>54</v>
@@ -7015,8 +7564,11 @@
       <c r="M33" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N33" s="15" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
         <v>101</v>
       </c>
@@ -7030,10 +7582,10 @@
         <v>412</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="F34" s="45" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>413</v>
@@ -7056,8 +7608,11 @@
       <c r="M34" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N34" s="15" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
         <v>101</v>
       </c>
@@ -7071,10 +7626,10 @@
         <v>418</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="G35" s="13" t="s">
         <v>419</v>
@@ -7095,8 +7650,11 @@
       <c r="M35" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="306" x14ac:dyDescent="0.2">
+      <c r="N35" s="15" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>101</v>
       </c>
@@ -7110,7 +7668,7 @@
         <v>421</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>422</v>
@@ -7134,8 +7692,11 @@
       <c r="M36" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N36" s="15" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>101</v>
       </c>
@@ -7173,8 +7734,11 @@
       <c r="M37" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N37" s="15" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>108</v>
       </c>
@@ -7211,8 +7775,11 @@
       <c r="M38" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N38" s="15" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>108</v>
       </c>
@@ -7252,8 +7819,11 @@
       <c r="M39" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="356" x14ac:dyDescent="0.2">
+      <c r="N39" s="15" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="356" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>108</v>
       </c>
@@ -7290,8 +7860,11 @@
       <c r="M40" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+      <c r="N40" s="15" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="340" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>108</v>
       </c>
@@ -7328,8 +7901,11 @@
       <c r="M41" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N41" s="15" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>108</v>
       </c>
@@ -7366,8 +7942,11 @@
       <c r="M42" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+      <c r="N42" s="15" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>114</v>
       </c>
@@ -7407,8 +7986,11 @@
       <c r="M43" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N43" s="15" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>114</v>
       </c>
@@ -7448,8 +8030,11 @@
       <c r="M44" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N44" s="15" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>114</v>
       </c>
@@ -7489,8 +8074,11 @@
       <c r="M45" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N45" s="15" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>114</v>
       </c>
@@ -7530,8 +8118,11 @@
       <c r="M46" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="372" x14ac:dyDescent="0.2">
+      <c r="N46" s="15" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="372" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>114</v>
       </c>
@@ -7545,19 +8136,19 @@
         <v>490</v>
       </c>
       <c r="E47" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F47" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="G47" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="I47" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>333</v>
@@ -7571,8 +8162,11 @@
       <c r="M47" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N47" s="15" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>114</v>
       </c>
@@ -7583,26 +8177,26 @@
         <v>45</v>
       </c>
       <c r="D48" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="F48" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="G48" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>465</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L48" s="15" t="s">
         <v>43</v>
@@ -7610,8 +8204,11 @@
       <c r="M48" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="306" x14ac:dyDescent="0.2">
+      <c r="N48" s="15" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A49" s="20" t="s">
         <v>114</v>
       </c>
@@ -7622,28 +8219,28 @@
         <v>46</v>
       </c>
       <c r="D49" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="F49" s="11" t="s">
         <v>503</v>
       </c>
-      <c r="F49" s="11" t="s">
+      <c r="G49" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="G49" s="29" t="s">
+      <c r="H49" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="H49" s="29" t="s">
+      <c r="I49" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="J49" s="4" t="s">
-        <v>508</v>
-      </c>
       <c r="K49" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L49" s="15" t="s">
         <v>43</v>
@@ -7651,8 +8248,11 @@
       <c r="M49" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N49" s="15" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A50" s="20" t="s">
         <v>120</v>
       </c>
@@ -7663,26 +8263,26 @@
         <v>47</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="4" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>54</v>
@@ -7690,8 +8290,11 @@
       <c r="M50" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N50" s="15" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A51" s="20" t="s">
         <v>120</v>
       </c>
@@ -7702,35 +8305,38 @@
         <v>48</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="4" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="M51" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N51" s="15" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
         <v>120</v>
       </c>
@@ -7741,23 +8347,23 @@
         <v>49</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="F52" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="G52" s="29" t="s">
         <v>511</v>
-      </c>
-      <c r="G52" s="29" t="s">
-        <v>512</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>473</v>
@@ -7768,8 +8374,11 @@
       <c r="M52" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N52" s="15" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A53" s="20" t="s">
         <v>120</v>
       </c>
@@ -7780,26 +8389,26 @@
         <v>50</v>
       </c>
       <c r="D53" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="F53" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="G53" s="29" t="s">
         <v>516</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>517</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="4" t="s">
         <v>172</v>
       </c>
       <c r="J53" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>519</v>
       </c>
       <c r="L53" s="15" t="s">
         <v>43</v>
@@ -7807,8 +8416,11 @@
       <c r="M53" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N53" s="15" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A54" s="20" t="s">
         <v>120</v>
       </c>
@@ -7819,26 +8431,26 @@
         <v>51</v>
       </c>
       <c r="D54" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="E54" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="F54" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="G54" s="29" t="s">
         <v>522</v>
-      </c>
-      <c r="G54" s="29" t="s">
-        <v>523</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J54" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="J54" s="4" t="s">
+      <c r="K54" s="4" t="s">
         <v>525</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>526</v>
       </c>
       <c r="L54" s="15" t="s">
         <v>43</v>
@@ -7846,8 +8458,11 @@
       <c r="M54" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="238" x14ac:dyDescent="0.2">
+      <c r="N54" s="15" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A55" s="20" t="s">
         <v>126</v>
       </c>
@@ -7858,28 +8473,28 @@
         <v>52</v>
       </c>
       <c r="D55" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="E55" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="F55" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="G55" s="43" t="s">
         <v>528</v>
       </c>
-      <c r="F55" s="11" t="s">
-        <v>940</v>
-      </c>
-      <c r="G55" s="43" t="s">
+      <c r="H55" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H55" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="I55" s="4" t="s">
+      <c r="J55" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="K55" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="L55" s="15" t="s">
         <v>54</v>
@@ -7887,8 +8502,11 @@
       <c r="M55" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N55" s="15" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A56" s="20" t="s">
         <v>126</v>
       </c>
@@ -7899,28 +8517,28 @@
         <v>53</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="E56" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="E56" s="11" t="s">
-        <v>534</v>
-      </c>
       <c r="F56" s="11" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="G56" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>528</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="H56" s="43" t="s">
-        <v>529</v>
-      </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="K56" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="L56" s="15" t="s">
         <v>54</v>
@@ -7928,8 +8546,11 @@
       <c r="M56" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N56" s="15" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A57" s="20" t="s">
         <v>126</v>
       </c>
@@ -7940,28 +8561,28 @@
         <v>54</v>
       </c>
       <c r="D57" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E57" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="F57" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="G57" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="G57" s="43" t="s">
-        <v>538</v>
-      </c>
       <c r="H57" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I57" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="J57" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="K57" s="4" t="s">
         <v>531</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>532</v>
       </c>
       <c r="L57" s="15" t="s">
         <v>54</v>
@@ -7969,8 +8590,11 @@
       <c r="M57" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N57" s="15" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A58" s="20" t="s">
         <v>126</v>
       </c>
@@ -7981,25 +8605,25 @@
         <v>55</v>
       </c>
       <c r="D58" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="G58" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="H58" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="I58" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="J58" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>355</v>
@@ -8010,8 +8634,11 @@
       <c r="M58" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N58" s="15" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A59" s="20" t="s">
         <v>126</v>
       </c>
@@ -8022,21 +8649,21 @@
         <v>56</v>
       </c>
       <c r="D59" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="E59" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="F59" s="10" t="s">
         <v>547</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>548</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
       <c r="I59" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="J59" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>355</v>
@@ -8047,8 +8674,11 @@
       <c r="M59" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N59" s="15" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A60" s="20" t="s">
         <v>133</v>
       </c>
@@ -8059,28 +8689,28 @@
         <v>57</v>
       </c>
       <c r="D60" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="E60" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="F60" s="10" t="s">
+        <v>931</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="F60" s="10" t="s">
-        <v>944</v>
-      </c>
-      <c r="G60" s="10" t="s">
+      <c r="H60" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="H60" s="14" t="s">
+      <c r="I60" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="J60" s="4" t="s">
+      <c r="K60" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>54</v>
@@ -8088,8 +8718,11 @@
       <c r="M60" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N60" s="15" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A61" s="20" t="s">
         <v>133</v>
       </c>
@@ -8097,72 +8730,75 @@
         <v>16</v>
       </c>
       <c r="C61" s="5">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61" s="10" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>929</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="H61" s="14" t="s">
         <v>556</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="I61" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>945</v>
-      </c>
-      <c r="G61" s="11" t="s">
+      <c r="J61" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="K61" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>43</v>
+      <c r="L61" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="M61" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
+      <c r="N61" s="15" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A62" s="21" t="s">
         <v>133</v>
       </c>
       <c r="B62" s="10">
         <v>16</v>
       </c>
       <c r="C62" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="G62" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="H62" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="F62" s="10" t="s">
-        <v>942</v>
-      </c>
-      <c r="G62" s="14" t="s">
+      <c r="I62" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="H62" s="14" t="s">
+      <c r="J62" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="K62" s="4" t="s">
         <v>566</v>
-      </c>
-      <c r="J62" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>568</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>54</v>
@@ -8170,40 +8806,43 @@
       <c r="M62" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="153" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="s">
+      <c r="N62" s="15" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+      <c r="A63" s="20" t="s">
         <v>133</v>
       </c>
       <c r="B63" s="10">
         <v>16</v>
       </c>
       <c r="C63" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="G63" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="H63" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="F63" s="10" t="s">
-        <v>946</v>
-      </c>
-      <c r="G63" s="16" t="s">
+      <c r="I63" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="H63" s="14" t="s">
+      <c r="J63" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="K63" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>54</v>
@@ -8211,8 +8850,11 @@
       <c r="M63" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N63" s="15" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A64" s="20" t="s">
         <v>133</v>
       </c>
@@ -8220,31 +8862,31 @@
         <v>16</v>
       </c>
       <c r="C64" s="5">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D64" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="H64" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="J64" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="F64" s="10" t="s">
-        <v>947</v>
-      </c>
-      <c r="G64" s="14" t="s">
+      <c r="K64" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="J64" s="4" t="s">
-        <v>581</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>54</v>
@@ -8252,8 +8894,11 @@
       <c r="M64" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N64" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A65" s="20" t="s">
         <v>133</v>
       </c>
@@ -8261,31 +8906,29 @@
         <v>16</v>
       </c>
       <c r="C65" s="5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D65" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>934</v>
+      </c>
+      <c r="G65" s="14" t="s">
+        <v>581</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="J65" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="E65" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="H65" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>588</v>
-      </c>
       <c r="K65" s="4" t="s">
-        <v>589</v>
+        <v>244</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>54</v>
@@ -8293,8 +8936,11 @@
       <c r="M65" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N65" s="15" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A66" s="20" t="s">
         <v>133</v>
       </c>
@@ -8302,29 +8948,31 @@
         <v>16</v>
       </c>
       <c r="C66" s="5">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D66" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>948</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>592</v>
-      </c>
-      <c r="H66" s="12"/>
-      <c r="I66" s="4" t="s">
-        <v>593</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>594</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>54</v>
@@ -8332,8 +8980,11 @@
       <c r="M66" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N66" s="15" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A67" s="20" t="s">
         <v>133</v>
       </c>
@@ -8341,31 +8992,31 @@
         <v>16</v>
       </c>
       <c r="C67" s="5">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D67" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="E67" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>599</v>
-      </c>
       <c r="J67" s="4" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>54</v>
@@ -8373,8 +9024,11 @@
       <c r="M67" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N67" s="15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A68" s="20" t="s">
         <v>133</v>
       </c>
@@ -8382,31 +9036,31 @@
         <v>16</v>
       </c>
       <c r="C68" s="5">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>603</v>
+        <v>1048</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>604</v>
+        <v>936</v>
+      </c>
+      <c r="G68" s="14" t="s">
+        <v>597</v>
       </c>
       <c r="H68" s="14" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>54</v>
@@ -8414,8 +9068,11 @@
       <c r="M68" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N68" s="15" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A69" s="20" t="s">
         <v>133</v>
       </c>
@@ -8423,81 +9080,85 @@
         <v>16</v>
       </c>
       <c r="C69" s="5">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D69" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>937</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="K69" s="4">
+        <v>7</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="M69" s="54">
+        <v>50</v>
+      </c>
+      <c r="N69" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+      <c r="A70" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="10">
+        <v>17</v>
+      </c>
+      <c r="C70" s="5">
+        <v>68</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="E70" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="F70" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="F69" s="10" t="s">
-        <v>950</v>
-      </c>
-      <c r="G69" s="14" t="s">
+      <c r="G70" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="H69" s="14" t="s">
+      <c r="H70" s="12"/>
+      <c r="I70" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="I69" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="J69" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="L69" s="10" t="s">
+      <c r="J70" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K70" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="L70" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M69" s="54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="204" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="B70" s="10">
-        <v>16</v>
-      </c>
-      <c r="C70" s="5">
-        <v>67</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>951</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>616</v>
-      </c>
-      <c r="J70" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="K70" s="4">
-        <v>7</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>618</v>
-      </c>
       <c r="M70" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N70" s="15" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A71" s="39" t="s">
         <v>139</v>
       </c>
@@ -8505,23 +9166,23 @@
         <v>17</v>
       </c>
       <c r="C71" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H71" s="12"/>
       <c r="I71" s="4" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="J71" s="4" t="s">
         <v>145</v>
@@ -8535,8 +9196,11 @@
       <c r="M71" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="306" x14ac:dyDescent="0.2">
+      <c r="N71" s="15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A72" s="39" t="s">
         <v>139</v>
       </c>
@@ -8544,23 +9208,23 @@
         <v>17</v>
       </c>
       <c r="C72" s="5">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>626</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>627</v>
+        <v>617</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>618</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="4" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>145</v>
@@ -8574,47 +9238,55 @@
       <c r="M72" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="187" x14ac:dyDescent="0.2">
-      <c r="A73" s="39" t="s">
-        <v>139</v>
+      <c r="N72" s="15" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="170" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>146</v>
       </c>
       <c r="B73" s="10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>629</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>630</v>
-      </c>
-      <c r="G73" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="H73" s="12"/>
-      <c r="I73" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="K73" s="47" t="s">
-        <v>138</v>
+        <v>619</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="K73" s="11">
+        <v>16</v>
       </c>
       <c r="L73" s="15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M73" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N73" s="15" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>146</v>
       </c>
@@ -8622,111 +9294,117 @@
         <v>18</v>
       </c>
       <c r="C74" s="5">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>955</v>
+        <v>624</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>956</v>
+        <v>625</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="H74" s="43" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="J74" s="11" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="K74" s="11">
         <v>16</v>
       </c>
       <c r="L74" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="M74" s="54">
+        <v>50</v>
+      </c>
+      <c r="N74" s="15" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A75" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="10">
+        <v>19</v>
+      </c>
+      <c r="C75" s="5">
+        <v>73</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="L75" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M74" s="54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" ht="221" x14ac:dyDescent="0.2">
-      <c r="A75" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="10">
-        <v>18</v>
-      </c>
-      <c r="C75" s="5">
-        <v>72</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>636</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>637</v>
-      </c>
-      <c r="F75" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="G75" s="11" t="s">
-        <v>639</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>639</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>634</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>635</v>
-      </c>
-      <c r="K75" s="11">
-        <v>16</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>377</v>
-      </c>
       <c r="M75" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A76" s="22" t="s">
+      <c r="N75" s="15" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="289" x14ac:dyDescent="0.2">
+      <c r="A76" s="27" t="s">
         <v>153</v>
       </c>
       <c r="B76" s="10">
         <v>19</v>
       </c>
       <c r="C76" s="5">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>641</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>643</v>
-      </c>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11" t="s">
-        <v>644</v>
-      </c>
-      <c r="J76" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>262</v>
+        <v>634</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>638</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>904</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>639</v>
       </c>
       <c r="L76" s="15" t="s">
         <v>43</v>
@@ -8734,8 +9412,11 @@
       <c r="M76" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N76" s="15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A77" s="27" t="s">
         <v>153</v>
       </c>
@@ -8743,31 +9424,29 @@
         <v>19</v>
       </c>
       <c r="C77" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G77" s="14" t="s">
-        <v>649</v>
-      </c>
-      <c r="H77" s="14" t="s">
-        <v>650</v>
-      </c>
+        <v>643</v>
+      </c>
+      <c r="H77" s="14"/>
       <c r="I77" s="10" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>917</v>
+        <v>905</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>652</v>
+        <v>321</v>
       </c>
       <c r="L77" s="15" t="s">
         <v>43</v>
@@ -8775,38 +9454,43 @@
       <c r="M77" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
+      <c r="N77" s="15" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="153" x14ac:dyDescent="0.2">
+      <c r="A78" s="22" t="s">
         <v>153</v>
       </c>
       <c r="B78" s="10">
         <v>19</v>
       </c>
       <c r="C78" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>654</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="H78" s="14"/>
-      <c r="I78" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>918</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>321</v>
+        <v>646</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>648</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>649</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>355</v>
       </c>
       <c r="L78" s="15" t="s">
         <v>43</v>
@@ -8814,8 +9498,11 @@
       <c r="M78" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N78" s="15" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="323" x14ac:dyDescent="0.2">
       <c r="A79" s="22" t="s">
         <v>153</v>
       </c>
@@ -8823,31 +9510,29 @@
         <v>19</v>
       </c>
       <c r="C79" s="5">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>660</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>661</v>
-      </c>
+        <v>653</v>
+      </c>
+      <c r="G79" s="11"/>
       <c r="H79" s="43" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="J79" s="11" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="K79" s="11" t="s">
-        <v>355</v>
+        <v>73</v>
       </c>
       <c r="L79" s="15" t="s">
         <v>43</v>
@@ -8855,38 +9540,43 @@
       <c r="M79" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="323" x14ac:dyDescent="0.2">
+      <c r="N79" s="15" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A80" s="22" t="s">
-        <v>153</v>
+        <v>657</v>
       </c>
       <c r="B80" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" s="5">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>666</v>
-      </c>
-      <c r="G80" s="11"/>
+        <v>660</v>
+      </c>
+      <c r="G80" s="11" t="s">
+        <v>661</v>
+      </c>
       <c r="H80" s="43" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="J80" s="11" t="s">
-        <v>669</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>73</v>
+        <v>663</v>
+      </c>
+      <c r="K80" s="11">
+        <v>16</v>
       </c>
       <c r="L80" s="15" t="s">
         <v>43</v>
@@ -8894,40 +9584,43 @@
       <c r="M80" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N80" s="15" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="404" x14ac:dyDescent="0.2">
       <c r="A81" s="22" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B81" s="10">
         <v>20</v>
       </c>
       <c r="C81" s="5">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>673</v>
-      </c>
-      <c r="G81" s="11" t="s">
-        <v>674</v>
+        <v>666</v>
+      </c>
+      <c r="G81" s="43" t="s">
+        <v>667</v>
       </c>
       <c r="H81" s="43" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>675</v>
+        <v>172</v>
       </c>
       <c r="J81" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="K81" s="11">
-        <v>16</v>
+        <v>173</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>668</v>
       </c>
       <c r="L81" s="15" t="s">
         <v>43</v>
@@ -8935,40 +9628,43 @@
       <c r="M81" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="404" x14ac:dyDescent="0.2">
+      <c r="N81" s="15" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A82" s="22" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B82" s="10">
         <v>20</v>
       </c>
       <c r="C82" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="E82" s="11" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="G82" s="43" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="H82" s="43" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>172</v>
+        <v>674</v>
       </c>
       <c r="J82" s="11" t="s">
-        <v>173</v>
+        <v>675</v>
       </c>
       <c r="K82" s="15" t="s">
-        <v>681</v>
+        <v>182</v>
       </c>
       <c r="L82" s="15" t="s">
         <v>43</v>
@@ -8976,40 +9672,43 @@
       <c r="M82" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="306" x14ac:dyDescent="0.2">
+      <c r="N82" s="15" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="340" x14ac:dyDescent="0.2">
       <c r="A83" s="22" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B83" s="10">
         <v>20</v>
       </c>
       <c r="C83" s="5">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D83" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="E83" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>680</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="J83" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="E83" s="11" t="s">
-        <v>683</v>
-      </c>
-      <c r="F83" s="11" t="s">
-        <v>684</v>
-      </c>
-      <c r="G83" s="43" t="s">
-        <v>685</v>
-      </c>
-      <c r="H83" s="43" t="s">
-        <v>686</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>687</v>
-      </c>
-      <c r="J83" s="11" t="s">
-        <v>688</v>
-      </c>
       <c r="K83" s="15" t="s">
-        <v>182</v>
+        <v>500</v>
       </c>
       <c r="L83" s="15" t="s">
         <v>43</v>
@@ -9017,40 +9716,41 @@
       <c r="M83" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="340" x14ac:dyDescent="0.2">
+      <c r="N83" s="15" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A84" s="22" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B84" s="10">
         <v>20</v>
       </c>
       <c r="C84" s="5">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>689</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>690</v>
+        <v>683</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>684</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>693</v>
-      </c>
+        <v>686</v>
+      </c>
+      <c r="H84" s="12"/>
       <c r="I84" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="K84" s="15" t="s">
-        <v>501</v>
+        <v>674</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="L84" s="15" t="s">
         <v>43</v>
@@ -9058,38 +9758,41 @@
       <c r="M84" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N84" s="15" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="22" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="B85" s="10">
         <v>20</v>
       </c>
       <c r="C85" s="5">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="E85" s="11" t="s">
-        <v>697</v>
+        <v>687</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>688</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="H85" s="12"/>
       <c r="I85" s="4" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>688</v>
+        <v>507</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>182</v>
+        <v>500</v>
       </c>
       <c r="L85" s="15" t="s">
         <v>43</v>
@@ -9097,47 +9800,55 @@
       <c r="M85" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A86" s="22" t="s">
-        <v>670</v>
+      <c r="N85" s="15" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A86" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="B86" s="10">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C86" s="5">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="E86" s="10" t="s">
-        <v>701</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>703</v>
-      </c>
-      <c r="H86" s="12"/>
+        <v>692</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>693</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="G86" s="43" t="s">
+        <v>695</v>
+      </c>
+      <c r="H86" s="43" t="s">
+        <v>695</v>
+      </c>
       <c r="I86" s="4" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>508</v>
+        <v>697</v>
       </c>
       <c r="K86" s="4" t="s">
-        <v>501</v>
+        <v>49</v>
       </c>
       <c r="L86" s="15" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M86" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N86" s="15" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>168</v>
       </c>
@@ -9145,40 +9856,41 @@
         <v>21</v>
       </c>
       <c r="C87" s="5">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="E87" s="46" t="s">
-        <v>706</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="G87" s="43" t="s">
-        <v>708</v>
-      </c>
-      <c r="H87" s="43" t="s">
-        <v>708</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="F87" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="H87" s="12"/>
       <c r="I87" s="4" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="L87" s="15" t="s">
-        <v>54</v>
+        <v>377</v>
       </c>
       <c r="M87" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N87" s="15" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>168</v>
       </c>
@@ -9186,26 +9898,28 @@
         <v>21</v>
       </c>
       <c r="C88" s="5">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="E88" s="46" t="s">
-        <v>712</v>
+        <v>704</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>705</v>
       </c>
       <c r="F88" s="46" t="s">
-        <v>713</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="H88" s="12"/>
+        <v>706</v>
+      </c>
+      <c r="G88" s="29" t="s">
+        <v>707</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>708</v>
+      </c>
       <c r="I88" s="4" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>73</v>
@@ -9216,8 +9930,11 @@
       <c r="M88" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N88" s="15" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>168</v>
       </c>
@@ -9225,72 +9942,75 @@
         <v>21</v>
       </c>
       <c r="C89" s="5">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D89" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="E89" s="46" t="s">
+        <v>710</v>
+      </c>
+      <c r="F89" s="46" t="s">
+        <v>711</v>
+      </c>
+      <c r="G89" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="H89" s="43" t="s">
+        <v>712</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="L89" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="M89" s="54">
+        <v>50</v>
+      </c>
+      <c r="N89" s="15" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="187" x14ac:dyDescent="0.2">
+      <c r="A90" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="10">
+        <v>22</v>
+      </c>
+      <c r="C90" s="5">
+        <v>88</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="E90" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="F90" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="F89" s="46" t="s">
+      <c r="G90" s="29" t="s">
         <v>719</v>
       </c>
-      <c r="G89" s="29" t="s">
+      <c r="H90" s="12" t="s">
         <v>720</v>
       </c>
-      <c r="H89" s="12" t="s">
+      <c r="I90" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>715</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>716</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L89" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="M89" s="54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="187" x14ac:dyDescent="0.2">
-      <c r="A90" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B90" s="10">
-        <v>21</v>
-      </c>
-      <c r="C90" s="5">
-        <v>87</v>
-      </c>
-      <c r="D90" s="10" t="s">
+      <c r="J90" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="E90" s="46" t="s">
-        <v>723</v>
-      </c>
-      <c r="F90" s="46" t="s">
-        <v>724</v>
-      </c>
-      <c r="G90" s="43" t="s">
-        <v>725</v>
-      </c>
-      <c r="H90" s="43" t="s">
-        <v>725</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>726</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>727</v>
-      </c>
       <c r="K90" s="4" t="s">
-        <v>728</v>
+        <v>210</v>
       </c>
       <c r="L90" s="15" t="s">
         <v>43</v>
@@ -9298,8 +10018,11 @@
       <c r="M90" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N90" s="15" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="255" x14ac:dyDescent="0.2">
       <c r="A91" s="22" t="s">
         <v>175</v>
       </c>
@@ -9307,31 +10030,29 @@
         <v>22</v>
       </c>
       <c r="C91" s="5">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D91" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="H91" s="12"/>
+      <c r="I91" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="E91" s="46" t="s">
-        <v>730</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>731</v>
-      </c>
-      <c r="G91" s="29" t="s">
-        <v>732</v>
-      </c>
-      <c r="H91" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>734</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="K91" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="L91" s="15" t="s">
         <v>43</v>
@@ -9339,8 +10060,11 @@
       <c r="M91" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N91" s="15" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="356" x14ac:dyDescent="0.2">
       <c r="A92" s="22" t="s">
         <v>175</v>
       </c>
@@ -9348,29 +10072,29 @@
         <v>22</v>
       </c>
       <c r="C92" s="5">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>738</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>739</v>
+        <v>732</v>
+      </c>
+      <c r="G92" s="29" t="s">
+        <v>733</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="4" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="L92" s="15" t="s">
         <v>43</v>
@@ -9378,8 +10102,11 @@
       <c r="M92" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="356" x14ac:dyDescent="0.2">
+      <c r="N92" s="15" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="306" x14ac:dyDescent="0.2">
       <c r="A93" s="22" t="s">
         <v>175</v>
       </c>
@@ -9387,29 +10114,28 @@
         <v>22</v>
       </c>
       <c r="C93" s="5">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="G93" s="29" t="s">
-        <v>746</v>
-      </c>
-      <c r="H93" s="12"/>
+        <v>735</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>737</v>
+      </c>
       <c r="I93" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>740</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>741</v>
-      </c>
-      <c r="K93" s="4" t="s">
-        <v>742</v>
       </c>
       <c r="L93" s="15" t="s">
         <v>43</v>
@@ -9417,37 +10143,41 @@
       <c r="M93" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="306" x14ac:dyDescent="0.2">
+      <c r="N93" s="15" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A94" s="22" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B94" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C94" s="5">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D94" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="H94" s="14"/>
+      <c r="I94" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>748</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="J94" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="K94" s="4" t="s">
-        <v>753</v>
       </c>
       <c r="L94" s="15" t="s">
         <v>43</v>
@@ -9455,8 +10185,11 @@
       <c r="M94" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N94" s="15" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="272" x14ac:dyDescent="0.2">
       <c r="A95" s="22" t="s">
         <v>183</v>
       </c>
@@ -9464,38 +10197,43 @@
         <v>23</v>
       </c>
       <c r="C95" s="5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D95" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="E95" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="H95" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="J95" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="E95" s="10" t="s">
+      <c r="K95" s="48" t="s">
         <v>755</v>
       </c>
-      <c r="F95" s="10" t="s">
-        <v>756</v>
-      </c>
-      <c r="G95" s="14" t="s">
-        <v>757</v>
-      </c>
-      <c r="H95" s="14"/>
-      <c r="I95" s="4" t="s">
-        <v>758</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>760</v>
-      </c>
       <c r="L95" s="15" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M95" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="272" x14ac:dyDescent="0.2">
+      <c r="N95" s="15" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="289" x14ac:dyDescent="0.2">
       <c r="A96" s="22" t="s">
         <v>183</v>
       </c>
@@ -9503,40 +10241,41 @@
         <v>23</v>
       </c>
       <c r="C96" s="5">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D96" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="E96" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="G96" s="29" t="s">
+        <v>759</v>
+      </c>
+      <c r="H96" s="12"/>
+      <c r="I96" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="J96" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>762</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>764</v>
-      </c>
-      <c r="H96" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>766</v>
-      </c>
-      <c r="J96" s="4" t="s">
-        <v>767</v>
-      </c>
-      <c r="K96" s="48" t="s">
-        <v>768</v>
+      <c r="K96" s="4">
+        <v>3</v>
       </c>
       <c r="L96" s="15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M96" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="289" x14ac:dyDescent="0.2">
+      <c r="N96" s="15" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="356" x14ac:dyDescent="0.2">
       <c r="A97" s="22" t="s">
         <v>183</v>
       </c>
@@ -9544,29 +10283,29 @@
         <v>23</v>
       </c>
       <c r="C97" s="5">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>770</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>771</v>
-      </c>
-      <c r="G97" s="29" t="s">
-        <v>772</v>
+        <v>763</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>765</v>
       </c>
       <c r="H97" s="12"/>
       <c r="I97" s="4" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>774</v>
-      </c>
-      <c r="K97" s="4">
-        <v>3</v>
+        <v>767</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>768</v>
       </c>
       <c r="L97" s="15" t="s">
         <v>43</v>
@@ -9574,8 +10313,11 @@
       <c r="M97" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" ht="356" x14ac:dyDescent="0.2">
+      <c r="N97" s="15" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="22" t="s">
         <v>183</v>
       </c>
@@ -9583,38 +10325,43 @@
         <v>23</v>
       </c>
       <c r="C98" s="5">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D98" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="E98" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="J98" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="K98" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="F98" s="10" t="s">
-        <v>777</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>778</v>
-      </c>
-      <c r="H98" s="12"/>
-      <c r="I98" s="4" t="s">
-        <v>779</v>
-      </c>
-      <c r="J98" s="4" t="s">
-        <v>780</v>
-      </c>
-      <c r="K98" s="4" t="s">
-        <v>781</v>
-      </c>
       <c r="L98" s="15" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="M98" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="N98" s="15" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="388" x14ac:dyDescent="0.2">
       <c r="A99" s="22" t="s">
         <v>183</v>
       </c>
@@ -9622,31 +10369,31 @@
         <v>23</v>
       </c>
       <c r="C99" s="5">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D99" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="E99" s="11" t="s">
+        <v>778</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="I99" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="E99" s="10" t="s">
+      <c r="J99" s="4" t="s">
         <v>783</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="K99" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="I99" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="J99" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="K99" s="4" t="s">
-        <v>789</v>
       </c>
       <c r="L99" s="15" t="s">
         <v>377</v>
@@ -9654,8 +10401,11 @@
       <c r="M99" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="388" x14ac:dyDescent="0.2">
+      <c r="N99" s="15" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A100" s="22" t="s">
         <v>183</v>
       </c>
@@ -9663,40 +10413,43 @@
         <v>23</v>
       </c>
       <c r="C100" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D100" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="E100" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="G100" s="43" t="s">
+        <v>788</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>788</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="J100" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="E100" s="11" t="s">
-        <v>791</v>
-      </c>
-      <c r="F100" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="G100" s="29" t="s">
-        <v>793</v>
-      </c>
-      <c r="H100" s="12" t="s">
-        <v>794</v>
-      </c>
-      <c r="I100" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="J100" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="K100" s="4" t="s">
-        <v>797</v>
+      <c r="K100" s="4">
+        <v>3</v>
       </c>
       <c r="L100" s="15" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="M100" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N100" s="15" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A101" s="22" t="s">
         <v>183</v>
       </c>
@@ -9704,31 +10457,25 @@
         <v>23</v>
       </c>
       <c r="C101" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="E101" s="11" t="s">
-        <v>799</v>
-      </c>
-      <c r="F101" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="G101" s="43" t="s">
-        <v>801</v>
-      </c>
-      <c r="H101" s="43" t="s">
-        <v>801</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="J101" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="K101" s="4">
-        <v>3</v>
+        <v>791</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="I101" s="48" t="s">
+        <v>794</v>
+      </c>
+      <c r="J101" s="48" t="s">
+        <v>795</v>
+      </c>
+      <c r="K101" s="48" t="s">
+        <v>100</v>
       </c>
       <c r="L101" s="15" t="s">
         <v>43</v>
@@ -9736,43 +10483,55 @@
       <c r="M101" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="136" x14ac:dyDescent="0.2">
-      <c r="A102" s="22" t="s">
-        <v>183</v>
+      <c r="N101" s="15" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="255" x14ac:dyDescent="0.2">
+      <c r="A102" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="B102" s="10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C102" s="5">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>804</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>806</v>
-      </c>
-      <c r="I102" s="48" t="s">
-        <v>807</v>
-      </c>
-      <c r="J102" s="48" t="s">
-        <v>808</v>
-      </c>
-      <c r="K102" s="48" t="s">
-        <v>100</v>
+        <v>796</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>798</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>799</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>801</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>906</v>
+      </c>
+      <c r="K102" s="11" t="s">
+        <v>802</v>
       </c>
       <c r="L102" s="15" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="M102" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="255" x14ac:dyDescent="0.2">
+      <c r="N102" s="15" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A103" s="8" t="s">
         <v>190</v>
       </c>
@@ -9780,31 +10539,31 @@
         <v>24</v>
       </c>
       <c r="C103" s="5">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D103" s="10" t="s">
+        <v>803</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>804</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>806</v>
+      </c>
+      <c r="H103" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>808</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="K103" s="11" t="s">
         <v>810</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>811</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>812</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>813</v>
-      </c>
-      <c r="I103" s="11" t="s">
-        <v>814</v>
-      </c>
-      <c r="J103" s="11" t="s">
-        <v>919</v>
-      </c>
-      <c r="K103" s="11" t="s">
-        <v>815</v>
       </c>
       <c r="L103" s="15" t="s">
         <v>377</v>
@@ -9812,8 +10571,11 @@
       <c r="M103" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N103" s="15" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>190</v>
       </c>
@@ -9821,40 +10583,43 @@
         <v>24</v>
       </c>
       <c r="C104" s="5">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D104" s="10" t="s">
+        <v>811</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="I104" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="J104" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="F104" s="11" t="s">
-        <v>818</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="H104" s="11" t="s">
-        <v>820</v>
-      </c>
-      <c r="I104" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="J104" s="11" t="s">
-        <v>822</v>
-      </c>
       <c r="K104" s="11" t="s">
-        <v>823</v>
+        <v>500</v>
       </c>
       <c r="L104" s="15" t="s">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="M104" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N104" s="15" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="204" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>190</v>
       </c>
@@ -9862,31 +10627,31 @@
         <v>24</v>
       </c>
       <c r="C105" s="5">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D105" s="10" t="s">
+        <v>818</v>
+      </c>
+      <c r="E105" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="G105" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="H105" s="11" t="s">
+        <v>822</v>
+      </c>
+      <c r="I105" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="E105" s="11" t="s">
-        <v>825</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>826</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>827</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>828</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>829</v>
-      </c>
-      <c r="J105" s="11" t="s">
-        <v>830</v>
-      </c>
       <c r="K105" s="11" t="s">
-        <v>501</v>
+        <v>182</v>
       </c>
       <c r="L105" s="15" t="s">
         <v>43</v>
@@ -9894,8 +10659,11 @@
       <c r="M105" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="204" x14ac:dyDescent="0.2">
+      <c r="N105" s="15" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="136" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>190</v>
       </c>
@@ -9903,31 +10671,31 @@
         <v>24</v>
       </c>
       <c r="C106" s="5">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D106" s="10" t="s">
+        <v>825</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>826</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>827</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>828</v>
+      </c>
+      <c r="H106" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="I106" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>831</v>
       </c>
-      <c r="E106" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>833</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="I106" s="11" t="s">
-        <v>836</v>
-      </c>
-      <c r="J106" s="11" t="s">
-        <v>837</v>
-      </c>
       <c r="K106" s="11" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="L106" s="15" t="s">
         <v>43</v>
@@ -9935,8 +10703,11 @@
       <c r="M106" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="136" x14ac:dyDescent="0.2">
+      <c r="N106" s="15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>190</v>
       </c>
@@ -9944,111 +10715,117 @@
         <v>24</v>
       </c>
       <c r="C107" s="5">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D107" s="10" t="s">
+        <v>832</v>
+      </c>
+      <c r="E107" s="11" t="s">
+        <v>833</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="H107" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="I107" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>838</v>
       </c>
-      <c r="E107" s="11" t="s">
-        <v>839</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>840</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="H107" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="I107" s="11" t="s">
-        <v>843</v>
-      </c>
-      <c r="J107" s="11" t="s">
-        <v>844</v>
-      </c>
-      <c r="K107" s="11" t="s">
-        <v>210</v>
-      </c>
+      <c r="K107" s="11"/>
       <c r="L107" s="15" t="s">
         <v>43</v>
       </c>
       <c r="M107" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N107" s="15" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B108" s="10">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C108" s="5">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D108" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="E108" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="E108" s="11" t="s">
-        <v>846</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>847</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>848</v>
-      </c>
-      <c r="H108" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="I108" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="J108" s="11" t="s">
-        <v>851</v>
-      </c>
-      <c r="K108" s="11"/>
+      <c r="K108" s="11" t="s">
+        <v>167</v>
+      </c>
       <c r="L108" s="15" t="s">
         <v>43</v>
       </c>
       <c r="M108" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N108" s="15" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B109" s="10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C109" s="5">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D109" s="10" t="s">
+        <v>846</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>849</v>
+      </c>
+      <c r="H109" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="I109" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>852</v>
       </c>
-      <c r="E109" s="11" t="s">
-        <v>853</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>855</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>856</v>
-      </c>
-      <c r="I109" s="11" t="s">
-        <v>857</v>
-      </c>
-      <c r="J109" s="11" t="s">
-        <v>858</v>
-      </c>
       <c r="K109" s="11" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="L109" s="15" t="s">
         <v>43</v>
@@ -10056,8 +10833,11 @@
       <c r="M109" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N109" s="15" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>204</v>
       </c>
@@ -10065,31 +10845,31 @@
         <v>26</v>
       </c>
       <c r="C110" s="5">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="G110" s="10" t="s">
-        <v>862</v>
-      </c>
-      <c r="H110" s="14" t="s">
-        <v>863</v>
+        <v>856</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>857</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="J110" s="11" t="s">
-        <v>865</v>
+        <v>209</v>
       </c>
       <c r="K110" s="11" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="L110" s="15" t="s">
         <v>43</v>
@@ -10097,8 +10877,11 @@
       <c r="M110" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="119" x14ac:dyDescent="0.2">
+      <c r="N110" s="15" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="187" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>204</v>
       </c>
@@ -10106,31 +10889,31 @@
         <v>26</v>
       </c>
       <c r="C111" s="5">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D111" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>862</v>
+      </c>
+      <c r="H111" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="I111" s="11" t="s">
+        <v>864</v>
+      </c>
+      <c r="J111" s="11" t="s">
+        <v>865</v>
+      </c>
+      <c r="K111" s="11" t="s">
         <v>866</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>867</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>868</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="H111" s="11" t="s">
-        <v>870</v>
-      </c>
-      <c r="I111" s="11" t="s">
-        <v>871</v>
-      </c>
-      <c r="J111" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="K111" s="11" t="s">
-        <v>210</v>
       </c>
       <c r="L111" s="15" t="s">
         <v>43</v>
@@ -10138,49 +10921,55 @@
       <c r="M111" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="187" x14ac:dyDescent="0.2">
+      <c r="N111" s="15" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="170" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B112" s="10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C112" s="5">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D112" s="10" t="s">
+        <v>867</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>868</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>869</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="H112" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="I112" s="11" t="s">
+        <v>871</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>872</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="K112" s="11" t="s">
         <v>873</v>
       </c>
-      <c r="F112" s="11" t="s">
-        <v>874</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>875</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>876</v>
-      </c>
-      <c r="I112" s="11" t="s">
-        <v>877</v>
-      </c>
-      <c r="J112" s="11" t="s">
-        <v>878</v>
-      </c>
-      <c r="K112" s="11" t="s">
-        <v>879</v>
-      </c>
       <c r="L112" s="15" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="M112" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="170" x14ac:dyDescent="0.2">
+      <c r="N112" s="15" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="221" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>211</v>
       </c>
@@ -10188,40 +10977,43 @@
         <v>27</v>
       </c>
       <c r="C113" s="5">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D113" s="10" t="s">
+        <v>874</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="G113" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="H113" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="E113" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>882</v>
-      </c>
-      <c r="G113" s="12" t="s">
-        <v>883</v>
-      </c>
-      <c r="H113" s="14" t="s">
-        <v>842</v>
-      </c>
-      <c r="I113" s="11" t="s">
-        <v>884</v>
-      </c>
-      <c r="J113" s="11" t="s">
-        <v>885</v>
-      </c>
       <c r="K113" s="11" t="s">
-        <v>886</v>
+        <v>217</v>
       </c>
       <c r="L113" s="15" t="s">
-        <v>377</v>
+        <v>54</v>
       </c>
       <c r="M113" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="221" x14ac:dyDescent="0.2">
+      <c r="N113" s="15" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="153" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>211</v>
       </c>
@@ -10229,40 +11021,43 @@
         <v>27</v>
       </c>
       <c r="C114" s="5">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>889</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>890</v>
-      </c>
-      <c r="H114" s="14" t="s">
-        <v>891</v>
+        <v>883</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>884</v>
+      </c>
+      <c r="H114" s="11" t="s">
+        <v>885</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="J114" s="11" t="s">
-        <v>893</v>
+        <v>209</v>
       </c>
       <c r="K114" s="11" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="L114" s="15" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="M114" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="153" x14ac:dyDescent="0.2">
+      <c r="N114" s="15" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="238" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>211</v>
       </c>
@@ -10270,134 +11065,96 @@
         <v>27</v>
       </c>
       <c r="C115" s="5">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>897</v>
+        <v>889</v>
+      </c>
+      <c r="G115" s="11" t="s">
+        <v>890</v>
       </c>
       <c r="H115" s="11" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="I115" s="11" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="J115" s="11" t="s">
-        <v>209</v>
+        <v>893</v>
       </c>
       <c r="K115" s="11" t="s">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="L115" s="15" t="s">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="M115" s="54">
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="238" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="B116" s="10">
-        <v>27</v>
-      </c>
-      <c r="C116" s="5">
-        <v>113</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>900</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>901</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>902</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>903</v>
-      </c>
-      <c r="H116" s="11" t="s">
-        <v>904</v>
-      </c>
-      <c r="I116" s="11" t="s">
-        <v>905</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>906</v>
-      </c>
-      <c r="K116" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L116" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="M116" s="54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="57" t="s">
+      <c r="N115" s="15" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="H117" s="12"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G118" s="12"/>
       <c r="H118" s="12"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G119" s="12"/>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H119" s="12"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G120" s="12"/>
       <c r="H120" s="12"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A125" s="15"/>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="15"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B128" s="15"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A117:XFD117"/>
+    <mergeCell ref="A116:XFD116"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H60" r:id="rId1" xr:uid="{E3E5EE19-390C-664B-BB84-8F07516336D5}"/>
-    <hyperlink ref="G62" r:id="rId2" xr:uid="{79725694-8018-C74D-A18D-0A759C387135}"/>
-    <hyperlink ref="H62" r:id="rId3" display="https://docs.microsoft.com/en-us/security-updates/securitybulletins/2017/ms17-010; " xr:uid="{BAE5451F-3D65-3340-823F-5831B8D023EE}"/>
-    <hyperlink ref="G63" r:id="rId4" xr:uid="{4D6CD9F0-BFA5-E848-A914-5C67E213F678}"/>
-    <hyperlink ref="H63" r:id="rId5" display="https://cve.mitre.org/cgi-bin/cvename.cgi?name=cve-2014-0160" xr:uid="{7F08741A-BD16-1E49-8989-D0EC113B9D3E}"/>
-    <hyperlink ref="G64" r:id="rId6" xr:uid="{1E36F908-7519-484C-85A8-822DF0FBC42D}"/>
-    <hyperlink ref="H64" r:id="rId7" xr:uid="{2FB8C147-AEEA-EC49-ADDB-81803C01EB2F}"/>
-    <hyperlink ref="G65" r:id="rId8" xr:uid="{D9B310EA-7E23-254B-ADE1-06F3B88CED5C}"/>
-    <hyperlink ref="H65" r:id="rId9" xr:uid="{0E53B227-0BB5-F54B-A9A1-588A9C946C35}"/>
-    <hyperlink ref="G66" r:id="rId10" xr:uid="{08D6DAB1-18FD-5643-BA47-7804B3669EFB}"/>
-    <hyperlink ref="G69" r:id="rId11" xr:uid="{DCE48871-BFCF-6B4A-BE57-304663B66573}"/>
-    <hyperlink ref="H69" r:id="rId12" display="https://www.tenable.com/plugins/nessus/77823 " xr:uid="{BF747F71-3ECF-2944-B87E-D77595FFBF7F}"/>
-    <hyperlink ref="H70" r:id="rId13" xr:uid="{77CC2867-2BAC-474C-9CC9-E6B06FEE8BCF}"/>
-    <hyperlink ref="G67" r:id="rId14" xr:uid="{731D6ABC-81D0-8D4F-9F9D-FE3D146708CA}"/>
-    <hyperlink ref="H68" r:id="rId15" xr:uid="{22133728-DEDB-5142-9DF5-F1BE54D7AAB6}"/>
-    <hyperlink ref="H84" r:id="rId16" location="session-id-properties " xr:uid="{58A25760-4DA5-B443-8B5E-9B5D3FC9E1A7}"/>
-    <hyperlink ref="H96" r:id="rId17" xr:uid="{C47382A9-4D26-A749-84E4-62C1B59DBAEC}"/>
+    <hyperlink ref="G61" r:id="rId2" xr:uid="{79725694-8018-C74D-A18D-0A759C387135}"/>
+    <hyperlink ref="H61" r:id="rId3" display="https://docs.microsoft.com/en-us/security-updates/securitybulletins/2017/ms17-010; " xr:uid="{BAE5451F-3D65-3340-823F-5831B8D023EE}"/>
+    <hyperlink ref="G62" r:id="rId4" xr:uid="{4D6CD9F0-BFA5-E848-A914-5C67E213F678}"/>
+    <hyperlink ref="H62" r:id="rId5" display="https://cve.mitre.org/cgi-bin/cvename.cgi?name=cve-2014-0160" xr:uid="{7F08741A-BD16-1E49-8989-D0EC113B9D3E}"/>
+    <hyperlink ref="G63" r:id="rId6" xr:uid="{1E36F908-7519-484C-85A8-822DF0FBC42D}"/>
+    <hyperlink ref="H63" r:id="rId7" xr:uid="{2FB8C147-AEEA-EC49-ADDB-81803C01EB2F}"/>
+    <hyperlink ref="G64" r:id="rId8" xr:uid="{D9B310EA-7E23-254B-ADE1-06F3B88CED5C}"/>
+    <hyperlink ref="H64" r:id="rId9" xr:uid="{0E53B227-0BB5-F54B-A9A1-588A9C946C35}"/>
+    <hyperlink ref="G65" r:id="rId10" xr:uid="{08D6DAB1-18FD-5643-BA47-7804B3669EFB}"/>
+    <hyperlink ref="G68" r:id="rId11" xr:uid="{DCE48871-BFCF-6B4A-BE57-304663B66573}"/>
+    <hyperlink ref="H68" r:id="rId12" display="https://www.tenable.com/plugins/nessus/77823 " xr:uid="{BF747F71-3ECF-2944-B87E-D77595FFBF7F}"/>
+    <hyperlink ref="H69" r:id="rId13" xr:uid="{77CC2867-2BAC-474C-9CC9-E6B06FEE8BCF}"/>
+    <hyperlink ref="G66" r:id="rId14" xr:uid="{731D6ABC-81D0-8D4F-9F9D-FE3D146708CA}"/>
+    <hyperlink ref="H67" r:id="rId15" xr:uid="{22133728-DEDB-5142-9DF5-F1BE54D7AAB6}"/>
+    <hyperlink ref="H83" r:id="rId16" location="session-id-properties " xr:uid="{58A25760-4DA5-B443-8B5E-9B5D3FC9E1A7}"/>
+    <hyperlink ref="H95" r:id="rId17" xr:uid="{C47382A9-4D26-A749-84E4-62C1B59DBAEC}"/>
     <hyperlink ref="G19" r:id="rId18" xr:uid="{20CDB420-039D-4073-8B03-34EB73AB9D23}"/>
     <hyperlink ref="G20" r:id="rId19" xr:uid="{5ECE399F-56DC-4AFF-8846-25C0C21A2971}"/>
     <hyperlink ref="G22" r:id="rId20" xr:uid="{804C38DA-F955-475B-8351-09FF4836D2D0}"/>
@@ -10405,9 +11162,9 @@
     <hyperlink ref="G23" r:id="rId22" xr:uid="{F5961F24-DD55-4339-BA32-EC8A192206FC}"/>
     <hyperlink ref="G26" r:id="rId23" xr:uid="{9E023A42-E15B-4C66-A4FB-BE58ACC88978}"/>
     <hyperlink ref="H26" r:id="rId24" xr:uid="{54845AE6-8A6C-49F1-A45F-D2D479EE1358}"/>
-    <hyperlink ref="H107" r:id="rId25" xr:uid="{2FB2A55E-28DE-4C15-98CC-73BB7648A661}"/>
-    <hyperlink ref="H110" r:id="rId26" xr:uid="{2AEB1866-2293-486C-BA4D-76FD11A7420F}"/>
-    <hyperlink ref="H113" r:id="rId27" xr:uid="{A7D928B5-CA12-4564-8AB4-62738B801DD1}"/>
+    <hyperlink ref="H106" r:id="rId25" xr:uid="{2FB2A55E-28DE-4C15-98CC-73BB7648A661}"/>
+    <hyperlink ref="H109" r:id="rId26" xr:uid="{2AEB1866-2293-486C-BA4D-76FD11A7420F}"/>
+    <hyperlink ref="H112" r:id="rId27" xr:uid="{A7D928B5-CA12-4564-8AB4-62738B801DD1}"/>
     <hyperlink ref="G11" r:id="rId28" xr:uid="{9B5DE842-6B82-4467-AFEA-A81F388BC653}"/>
     <hyperlink ref="G55" r:id="rId29" xr:uid="{A1DC0B20-B4FB-49E0-B1E3-5FF7F98C726C}"/>
     <hyperlink ref="H55" r:id="rId30" xr:uid="{89D86FCF-1298-4B55-AD42-22F65DA42419}"/>
@@ -10415,17 +11172,17 @@
     <hyperlink ref="H57" r:id="rId32" xr:uid="{FEF5588E-F25F-4EBF-BA84-18C93FB7C1DF}"/>
     <hyperlink ref="G56" r:id="rId33" xr:uid="{4F61F0AC-ACEB-472B-95DE-9C5B8E003D6E}"/>
     <hyperlink ref="H56" r:id="rId34" xr:uid="{56042EEB-F706-4D44-988F-4DAF1E3D531B}"/>
-    <hyperlink ref="H75" r:id="rId35" xr:uid="{A2BC347A-A774-47C9-8872-CBBB3514C8C7}"/>
-    <hyperlink ref="H74" r:id="rId36" display="http://projects.webappsec.org/w/page/13246934/Improper%20Output%20Handling" xr:uid="{CB2FC2C4-6BCD-4584-BF52-937947D8A24C}"/>
-    <hyperlink ref="G101" r:id="rId37" xr:uid="{9D5C616F-628F-43EB-889F-779D8A853FF4}"/>
-    <hyperlink ref="H101" r:id="rId38" xr:uid="{5BD6E029-07B5-4603-8161-E1F706EB4730}"/>
-    <hyperlink ref="H79" r:id="rId39" xr:uid="{2E5795AD-3852-4C18-B930-F986C9802164}"/>
-    <hyperlink ref="H80" r:id="rId40" xr:uid="{E489A080-F4BD-47FC-8573-C2E936BE5954}"/>
-    <hyperlink ref="H81" r:id="rId41" xr:uid="{C1EBC70B-85F0-4064-9A36-0ED1076A3BFB}"/>
-    <hyperlink ref="H87" r:id="rId42" xr:uid="{8023BE1E-0091-4353-A35E-40AA5AAC869D}"/>
-    <hyperlink ref="G90" r:id="rId43" xr:uid="{BBFEEECF-B75F-43D9-83BD-2EE506846ABE}"/>
-    <hyperlink ref="H90" r:id="rId44" xr:uid="{E0C771FD-3F24-4775-93CA-5B24D6414AD3}"/>
-    <hyperlink ref="H114" r:id="rId45" xr:uid="{2996AAEE-F0E3-4E27-8055-0BDE2B6AB80F}"/>
+    <hyperlink ref="H74" r:id="rId35" xr:uid="{A2BC347A-A774-47C9-8872-CBBB3514C8C7}"/>
+    <hyperlink ref="H73" r:id="rId36" display="http://projects.webappsec.org/w/page/13246934/Improper%20Output%20Handling" xr:uid="{CB2FC2C4-6BCD-4584-BF52-937947D8A24C}"/>
+    <hyperlink ref="G100" r:id="rId37" xr:uid="{9D5C616F-628F-43EB-889F-779D8A853FF4}"/>
+    <hyperlink ref="H100" r:id="rId38" xr:uid="{5BD6E029-07B5-4603-8161-E1F706EB4730}"/>
+    <hyperlink ref="H78" r:id="rId39" xr:uid="{2E5795AD-3852-4C18-B930-F986C9802164}"/>
+    <hyperlink ref="H79" r:id="rId40" xr:uid="{E489A080-F4BD-47FC-8573-C2E936BE5954}"/>
+    <hyperlink ref="H80" r:id="rId41" xr:uid="{C1EBC70B-85F0-4064-9A36-0ED1076A3BFB}"/>
+    <hyperlink ref="H86" r:id="rId42" xr:uid="{8023BE1E-0091-4353-A35E-40AA5AAC869D}"/>
+    <hyperlink ref="G89" r:id="rId43" xr:uid="{BBFEEECF-B75F-43D9-83BD-2EE506846ABE}"/>
+    <hyperlink ref="H89" r:id="rId44" xr:uid="{E0C771FD-3F24-4775-93CA-5B24D6414AD3}"/>
+    <hyperlink ref="H113" r:id="rId45" xr:uid="{2996AAEE-F0E3-4E27-8055-0BDE2B6AB80F}"/>
     <hyperlink ref="H11" r:id="rId46" xr:uid="{E7CC593B-381A-42C1-8235-E9FE8F4EBDE6}"/>
     <hyperlink ref="H10" r:id="rId47" xr:uid="{F3E53C64-A85C-4858-BECE-41030BDF79AC}"/>
     <hyperlink ref="G38" r:id="rId48" xr:uid="{3F4FD4EB-63A9-194F-9EEC-F032D5E47A97}"/>
@@ -10433,15 +11190,15 @@
     <hyperlink ref="G39" r:id="rId50" xr:uid="{E3339C55-C438-C343-8296-50A5BBB1E31B}"/>
     <hyperlink ref="H39" r:id="rId51" xr:uid="{8FB2D010-6C28-094A-8060-9D2127C6E67A}"/>
     <hyperlink ref="H34" r:id="rId52" xr:uid="{BC2EF8F6-F365-AE4D-AAAC-85DCDDF298B1}"/>
-    <hyperlink ref="G73" r:id="rId53" xr:uid="{23FD6DEA-3224-064C-899F-51BD412808E4}"/>
+    <hyperlink ref="G72" r:id="rId53" xr:uid="{23FD6DEA-3224-064C-899F-51BD412808E4}"/>
     <hyperlink ref="G31" r:id="rId54" display="https://www.microsoft.com/en-us/security/business/security-101/what-is-phishing?ef_id=b4f814899ed11b3c078676681374cbb9:G:s&amp;OCID=AIDcmmdamuj0pc_SEM_b4f814899ed11b3c078676681374cbb9:G:s&amp;msclkid=b4f814899ed11b3c078676681374cbb9 https://www.researchgate.net/publication/351945314_Testing_the_Susceptibility_of_Employees_to_Phishing_Emails " xr:uid="{C319C971-5FF7-4988-BE11-CB4E13A67D00}"/>
     <hyperlink ref="G32" r:id="rId55" xr:uid="{CCFE6F46-C6A3-4A2B-8856-D3C7E382DF59}"/>
-    <hyperlink ref="G77" r:id="rId56" xr:uid="{3CBDA1D9-4748-5643-8727-42343038D3B2}"/>
-    <hyperlink ref="H77" r:id="rId57" xr:uid="{39E12E3A-D714-154A-8F1E-087BF7C257C0}"/>
+    <hyperlink ref="G76" r:id="rId56" xr:uid="{3CBDA1D9-4748-5643-8727-42343038D3B2}"/>
+    <hyperlink ref="H76" r:id="rId57" xr:uid="{39E12E3A-D714-154A-8F1E-087BF7C257C0}"/>
     <hyperlink ref="G6" r:id="rId58" display="https://docs.microsoft.com/en-us/previous-versions/windows/it-pro/windows-server-2008-R2-and-2008/dd560653(v=ws.10)https://docs.microsoft.com/en-us/previous-versions/windows/it-pro/windows-server-2008-R2-and-2008/jj865676(v=ws.10)https://www.securew2.com/blog/why-ntlm-authentication-is-vulnerablehttps://securityboulevard.com/2018/10/the-security-risks-of-ntlm-proceed-with-caution/https://www.calcomsoftware.com/ntlm-security-weaknesses/ " xr:uid="{4E820C75-00EE-2241-9933-10EF05514CAF}"/>
     <hyperlink ref="G7" r:id="rId59" xr:uid="{3A3F0AC4-D3F6-CF4D-9BD5-66D84EA59160}"/>
-    <hyperlink ref="G92" r:id="rId60" location=":~:text=Insecure%20SSL%2FTLS%20Protocol%20Using%20insecure%20and%20deprecated%20protocols,and%20POODLE%20%28Padding%20Oracle%20On%20Downgraded%20Legacy%20Encryption%29. " xr:uid="{917C86E2-CF4D-AA49-8F5C-64B9882073CC}"/>
-    <hyperlink ref="G87" r:id="rId61" xr:uid="{22A28A6D-4A94-4EBC-A45B-399D3089371E}"/>
+    <hyperlink ref="G91" r:id="rId60" location=":~:text=Insecure%20SSL%2FTLS%20Protocol%20Using%20insecure%20and%20deprecated%20protocols,and%20POODLE%20%28Padding%20Oracle%20On%20Downgraded%20Legacy%20Encryption%29. " xr:uid="{917C86E2-CF4D-AA49-8F5C-64B9882073CC}"/>
+    <hyperlink ref="G86" r:id="rId61" xr:uid="{22A28A6D-4A94-4EBC-A45B-399D3089371E}"/>
     <hyperlink ref="H14" r:id="rId62" display="https://blog.fox-it.com/2018/04/26/escalating-privileges-with-acls-in-active-directory/ https://book.hacktricks.xyz/windows-hardening/active-directory-methodology/acl-persistence-abuse https://wald0.com/?p=112 https://msdn.microsoft.com/en-us/library/windows/desktop/aa379557(v=vs.85).aspx " xr:uid="{ED344202-07BF-4354-91DF-1162658C70AE}"/>
     <hyperlink ref="G14" r:id="rId63" xr:uid="{C4CF194C-DC8E-4116-B40A-318AF1DD4328}"/>
   </hyperlinks>
@@ -10454,21 +11211,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C83BDCBE8D48284D85D769B4BB94FC3E" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="25512200c29be4ab0576bf074008b9cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a41d324c-c108-411a-a0c2-0fa88bc9ce3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c4e5cc0cd8b102faac2405d31b1db89" ns2:_="">
     <xsd:import namespace="a41d324c-c108-411a-a0c2-0fa88bc9ce3f"/>
@@ -10600,24 +11342,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B525D9CE-2987-4221-8A14-0DB305486239}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED0DD4F-EF38-4B94-9E1F-316F1E175FBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB4DFF8-A81D-4740-94AE-9D4036BDAAAB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10633,4 +11373,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B525D9CE-2987-4221-8A14-0DB305486239}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1ED0DD4F-EF38-4B94-9E1F-316F1E175FBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>